--- a/KPT_202205-202212.xlsx
+++ b/KPT_202205-202212.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E4B33B-C3E4-418D-AC32-4FC18938C4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7F02B9-4BE6-4F39-B66E-A88F64218442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
   <si>
     <t>種別</t>
     <rPh sb="0" eb="2">
@@ -149,82 +159,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>報告時に発生状況とエラー内容の詳細が不足していた。</t>
-    <rPh sb="0" eb="2">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関数・メソッド単位で動作確認後に命名、コメント記載などを行う。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業が予定時刻までに終わらなかった。</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予定時刻30分前には「作業内容」「現状」「遅延理由」を上げる。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -294,1093 +229,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メンバーが他作業を行っている中で、連携が不足していた</t>
-    <rPh sb="5" eb="6">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>フソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問題、完了以外でも途中経過の報告を切りがいいところで入れる。</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総合的な処理が重い。画面描画に影響が発生した</t>
-    <rPh sb="0" eb="3">
-      <t>ソウゴウテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理が重い場合、同期処理を非同期処理に切り替えることを検討する。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドウキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ヒドウキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンフリクト解消時に対応を誤った。消すべきでないコードを削除した。</t>
-    <rPh sb="6" eb="8">
-      <t>カイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アヤマ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミット内容を確認してからコンフリクトへの対応を実施する。</t>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成物に関しては、ローカルでバージョン管理をしておく　gitでよい</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2回使用したスクリプトはその時にまとめる</t>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GWの掲示板に広く利用できそうな内容を記載する</t>
-    <rPh sb="3" eb="6">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>資格試験については、やればやるほどに楽になっていく。</t>
-    <rPh sb="0" eb="2">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ラク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最初は2、30分ほどの時間を設定し、徐々に可能な範囲で伸ばしていく。</t>
-    <rPh sb="7" eb="8">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョジョ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チーム内で技術的に不安がありそうなら手の出せる範囲で補助を試みる。</t>
-    <rPh sb="3" eb="4">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ギジュツテキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フアン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホジョ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ココロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>少しでも考えたことがあればどこかで人の目につくところに出しておく</t>
-    <rPh sb="0" eb="1">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各自作業がなくなった段階でそれ以降の作業が実行困難なことに気づいた</t>
-    <rPh sb="0" eb="2">
-      <t>カクジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コンナン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結論</t>
     <rPh sb="0" eb="2">
       <t>ケツロン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要のみで良いと考えていた。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ある程度の内容は把握していると考えていた。</t>
-    <rPh sb="2" eb="4">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソース修正を行っていると聞いていた。</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事前にどの程度まで把握しているのかを話し合う機会を取ってはいなかった。</t>
-  </si>
-  <si>
-    <t>作業員ごとの認識の程度を把握するための会話をしておく。
-（どこまで把握するかの指標も必要）</t>
-    <rPh sb="0" eb="3">
-      <t>サギョウイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>シヒョウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認すべき内容が予想よりも多かった</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨソウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大雑把に把握していたが詳細まで見ていなかった。</t>
-    <rPh sb="0" eb="3">
-      <t>オオザッパ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それまでは該当部分の詳細を見る必要がなかった。</t>
-    <rPh sb="5" eb="7">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業開始前に全貌を把握できていることは少ない</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゼンボウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>スク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一般的な内容に対して必要な対応とどの程度時間がかかるかを把握しておく。</t>
-    <rPh sb="0" eb="3">
-      <t>イッパンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ハアク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベースを間違えた状態でリモートへのプッシュを行った
-　→ブランチを作成した時点でベースブランチを間違えていた。</t>
-    <rPh sb="4" eb="6">
-      <t>マチガ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業開始時にどれをベースとすべきかを聞いていなかった</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本番用のブランチが最新だと思い込んでいた。</t>
-    <rPh sb="0" eb="2">
-      <t>ホンバン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業開始時点であった。</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最新と思われるものがあっても、チェックアウト前に最新のブランチがどれであるかは確認をとる。</t>
-    <rPh sb="0" eb="2">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>話すべきと考える内容は報告している認識で合った。</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表面化している大きな問題に関しては報告していた。</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウメンカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>細かい気づきなどについての情報共有も行うために時間を取ることを意識する。</t>
-    <rPh sb="0" eb="1">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既存処理も含めて初期表示で処理量が増大していた</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゾウダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全処理を同期的に行っていた</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ドウキテキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>元のソースで処理量が問題になっているという考えはなかった
-※元々は他社のコード</t>
-    <rPh sb="0" eb="1">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>モトモト</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>タシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各所で取り扱っているデータが多すぎるということは聞いていたが処理に関しての注意は聞いていなかった</t>
-    <rPh sb="0" eb="2">
-      <t>カクショ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発支援であったので、基本的には現状の問題点への対応が主でありデータ対応で対応可と思われるで納得していた。</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>モンダイテン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ナットク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問題となっていなくとも、処理を確認して簡単に軽量化できそうであれば提案を行う。</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ケイリョウカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実行している内容が不要だと考えた</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プッシュしたブランチの主目的と関係のない内容であった</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主目的と関係のない軽微な修正を同じブランチでコミットしていた。</t>
-    <rPh sb="0" eb="3">
-      <t>シュモクテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケイビ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（おそらく）修正初期の段階で必要なことに気づいた。</t>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブランチに含む内容を明確に規定し、認識しておくべきであった。
-軽微であっても関係のない修正を含むべきでなかった。</t>
-    <rPh sb="5" eb="6">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>メイカク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケイビ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同じようなコマンドの流れを複数回使用していた。
-　→コマンド内容について検索に時間を使った</t>
-    <rPh sb="0" eb="1">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>フクスウカイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バッチ化していなかった</t>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一時的なものだと考えていた</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「恐らく」その後同じような対応が必要にならないと考えていた</t>
-    <rPh sb="1" eb="2">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その時確認すべき内容はすべて確認していた。
-（別方向からの内容でさらに確認が必要になった）</t>
-    <rPh sb="2" eb="3">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よく使うコマンドや処理については再使用の可能性が少しでもあれば自動化しておく。</t>
-    <rPh sb="2" eb="3">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>サイシヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ジドウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予定では次の作業に必要な情報が渡ってくる予定であった。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チーム外に依存する箇所であり、相手側から返信がなかった</t>
-    <rPh sb="3" eb="4">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イゾン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参画前時点の話になるので、どういった会話がされていたのかは詳細不明</t>
-    <rPh sb="0" eb="2">
-      <t>サンカク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細が不明な部分が多かったので、もう少し前の段階で来なかった場合どうするかの会話をすべきであった。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カイワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1426,62 +277,6 @@
     <t>ルール（チーム）</t>
   </si>
   <si>
-    <t>なぜ30分前なのか？
-　→特に理由がない。切りが良かった。
-　　遅れると判断ができるラインがこのあたりであった。
-　　このときの作業は数時間で完了するものだったが、数日というスパンのものであればまた違うと思われる。
-　　1時間という短いスパンでもまた違う印象はある。</t>
-    <rPh sb="13" eb="14">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="67" eb="70">
-      <t>スウジカン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>スウジツ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>インショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>業務の中で調整は必要なものの総時間の2,3割で目途はつくかと思われる。
 0～1時間 　　→ 15分後
 1時間～4時間 → 1時間後
@@ -1564,1063 +359,6 @@
     </rPh>
     <rPh sb="116" eb="117">
       <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブランチの作成前、リモートブランチへのプッシュを行う前に確認を行う。
-・作成前　　：ベースブランチを指定しているか。
-・コミット前：コミット内容は正しいか。
-・コミット前：コメントはつけているか。
-・プッシュ前：プッシュ先は正しいか。</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜ行うのか？
-　→ミスをした際に失われるコストが確認コストと比較して大きい。
-　　プッシュに関しては特に注意する必要がある。</t>
-    <rPh sb="2" eb="3">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウシナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実施する。
-案件開始時に確認するくらいの内容</t>
-    <rPh sb="0" eb="2">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜ行うのか？
-　→テレワークに限らず、そもそも意思疎通が取れていないことが多く、また定例会では思った以上に言いづらいため。
-　　定例会では進行面を会話することが多く、細かい問題までは目が届かないことが多い。
-　　小刻みに報告・連絡をすることでこのあたりの齟齬の解消になり、かつ発言もしやすくなると考える。（特に年次の低い者）
-　　→疑問が大きくなりすぎると聞きたいことが増えすぎて聞けない。
-　　　分かっている感じで進むと割って入りにくい。
-　　　→結果として全く発言がなくなる</t>
-    <rPh sb="2" eb="3">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ソツウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>テイレイカイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="65" eb="68">
-      <t>テイレイカイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>メン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>コキザ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ソゴ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>カイショウ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ネンジ</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>ギモン</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="200" eb="201">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="206" eb="207">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="209" eb="210">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="212" eb="213">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="231" eb="232">
-      <t>マッタ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ハツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>案件によるが2時間に一回会話する、1時間に一回チャット入れるなど管理者側がアクションを取る方がよいかもしれない。
-経験年数が低い方対象の場合、具体的に聞く方がよい。
-とりあえず分かっていそうなことを先に質問すると話やすいと思われる。相手が発言をしたという実績を作らせて話やすくすべきである。
-例：何か困ってない？→～の…とか大丈夫そう？やったことあるんだっけ？…など</t>
-    <rPh sb="0" eb="2">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ネンスウ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>グタイ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="162" eb="165">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜ行うのか？
-　→並列処理にすることで重い処理の完了を待たずに後続の処理に進むことができるため。
-　　ただし、後続処理との関係性の把握は必要となるので、とにかく行うという性質のものではない。</t>
-    <rPh sb="2" eb="3">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘイレツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウゾク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>コウゾク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>セイシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>業務知識
-障害対応</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜその順番で行うのか。
-　→ソフトによって、コンフリクトの表示方法が違う場合があるので、コミットを確認し、変更部分を確認した上でコンフリクトの解消を行った方が無駄にミスが増えないという点で効率がよい</t>
-    <rPh sb="4" eb="6">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>カイショウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ムダ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>コウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業手順として、明記すべき内容</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>メイキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜ行うのか？
-　→変更毎にコミットを切っておかないと後々「あの変更でよかった」となったとき再度修正ではなくそのときの履歴からコードを引っ張ってこれるため。
-　　下手にGithubに連携するわけにはいかないが、gitで管理しておくだけでも手数を減らし、生産性は高まる。手戻りの影響を押さえられるという意味で。</t>
-    <rPh sb="2" eb="3">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ノチノチ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>パ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>テカズ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="126" eb="129">
-      <t>セイサンセイ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>テモド</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チーム内で同意を得ておく必要がある。
-作業手順の方向</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜ行うのか？
-　→２回使ったものはほとんどの場合また利用するため。</t>
-    <rPh sb="2" eb="3">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜ行うのか。
-　→SRの社員が問題なく見ることのできるものとして思い浮かんだものが掲示板であったため。
-　　課会でコミュニケーションの一環として掲示板の利用が挙がっていたため。</t>
-    <rPh sb="2" eb="3">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>イッカン</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひとまずSol2-3向けに限定して公開の方法を整理中
-内容も整理していき、情報共有の場となればベストか</t>
-    <rPh sb="10" eb="11">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>バ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜ楽になるのか
-　→内容についての解像度があがるから。
-　　→段階的に低レベルから始めるから。</t>
-    <rPh sb="2" eb="3">
-      <t>ラク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>カイゾウド</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ダンカイテキ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>テイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・低レベルな内容から始める。
-　前職で見聞きしたのは分かる7割・分からない3割
-・始めは短時間・一要素・一単語に対する理解でもいいので続けられる範囲で行う。</t>
-    <rPh sb="1" eb="2">
-      <t>テイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ゼンショク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ミキ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ワリ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ワリ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>タンジカン</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>イチヨウソ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>リカイ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜ行うのか。
-　→記載時はリーダー的な要素として心掛けたいこととして記載した。
-　　→実際行おうとしてみると、中々状況によっては難しい。
-　　　→自分の作業に入ってしまうと実行できない
-　→チーム内の問題共有
-　　→分からないという声は思った以上に上げづらいから
-　　　→言ってよいのか不安・恐怖にかられる
-　　　　→言ってよいということを明示するためにも事前に声をかける。
-　　　　　簡単なことの補助をする</t>
-    <rPh sb="2" eb="3">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ココロガ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ナカナカ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ムズカ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>コエ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>フアン</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>キョウフ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>メイジ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>コエ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>ホジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>技術的な面だけでなくとも、平時と比べて
-・言いよどむ
-・返事に違和感を感じる
-・発言が少ない
-などがあれば、積極的に声をかける。
-現状割と気になっても声をかけられていない</t>
-    <rPh sb="0" eb="3">
-      <t>ギジュツテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘイジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>クラ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヘンジ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>イワカン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>コエ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ワリ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>コエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>誰かから意見をもらえれば、そこから派生が生まれる可能性がある</t>
-    <rPh sb="0" eb="1">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハセイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>カノウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8と同じ</t>
-    <rPh sb="2" eb="3">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業に空きが出そうかどうかを先回りしておく。
-作業者：次の作業がぼんやりとも分からない場合、現作業が完了する1時間前に報告
-管理者：作業者の先の作業がなくなることが判明した時点で会話する</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サキマワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空きが出てから行動では空きが解消されない。
-空きでないようにする
-　→空きの発生をつぶす。
-　　→作業内容の進捗をある程度正確に把握し、共有する。
-　　　→密に連絡を取る</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイショウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3188,29 +926,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>APIGatewayには、CORSの有効化が必要で、Lambdaの返り値に対応するヘッダー</t>
-    <rPh sb="18" eb="21">
-      <t>ユウコウカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>を持たせる必要がある。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3291,6 +1006,223 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gitの個人レポジトリへのアクセスについて、403が発生した。</t>
+    <rPh sb="4" eb="6">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終的に、アクセス許可を業務用のアカウントに渡すことで、対応した。</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIGatewayには、CORSの有効化が必要で、Lambdaの返り値に対応する</t>
+    <rPh sb="18" eb="21">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーを持たせる必要がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>try・behave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>であったが、そもそも関わりのある箇所も併せて修正しないといけない修正方針</t>
+    <rPh sb="10" eb="11">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を取ってしまっていた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関係事項の関わり合いを具体的に図や表に書き表しておく。</t>
+    <rPh sb="0" eb="4">
+      <t>カンケイジコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正・リファクタリングは必要最小限の範囲で行う。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>ヒツヨウサイショウゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理想定に漏れがあった。追加のリファクタリング内容を混同してしまった。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【具体的内容】対象の修正後に関わりのある箇所をリファクタリングするつもり</t>
+    <rPh sb="1" eb="4">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポインタがある。メモリアドレスの参照が可能。メモリ管理が必要？というかC言語よりだったのか。</t>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"%#v"：Goリテラルで対象データを表示</t>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3347,7 +1279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -3506,77 +1438,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -3806,11 +1667,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3828,11 +1802,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3847,9 +1821,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3867,30 +1838,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3908,74 +1862,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <fill>
@@ -3988,9 +1987,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -4129,9 +2126,7 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -4150,16 +2145,26 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="medium">
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
+        <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4219,41 +2224,17 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="設定"/>
-      <sheetName val="KPT_整理前"/>
-      <sheetName val="probrem整理"/>
-      <sheetName val="try整理"/>
-      <sheetName val="KPT_整理後"/>
-      <sheetName val="ルール"/>
-      <sheetName val="KPT実行手順"/>
-      <sheetName val="git手順"/>
-      <sheetName val="コンピテンシーシートについて"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F4A0CB9-4C4F-489F-AE5F-D1D39F9C0C8B}" name="テーブル1" displayName="テーブル1" ref="B1:G16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B1:G16" xr:uid="{09B6719A-0D5D-4008-8E06-9E9F8BEA0FE8}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ルール"/>
-        <filter val="ルール（チーム）"/>
-        <filter val="ルール（個人）"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F4A0CB9-4C4F-489F-AE5F-D1D39F9C0C8B}" name="テーブル1" displayName="テーブル1" ref="B1:G16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B1:G16" xr:uid="{09B6719A-0D5D-4008-8E06-9E9F8BEA0FE8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0C87652A-30D2-4C25-94B1-080B49B164AD}" name="番号" dataDxfId="5">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -4534,17 +2515,17 @@
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:4" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:4" ht="19.5" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4614,7 +2595,7 @@
     <row r="18" spans="2:2">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" ht="18.600000000000001" thickBot="1">
+    <row r="19" spans="2:2" ht="19.5" thickBot="1">
       <c r="B19" s="5"/>
     </row>
   </sheetData>
@@ -4630,7 +2611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4639,17 +2620,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78639667-E5BE-4589-B33D-51DA1C58CBFF}">
-  <dimension ref="A2:BR55"/>
+  <dimension ref="A2:BR58"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS26" sqref="AS26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="46" width="3.09765625" style="9"/>
+    <col min="1" max="46" width="3.125" style="9"/>
     <col min="47" max="48" width="3.5" style="9" customWidth="1"/>
-    <col min="49" max="16384" width="3.09765625" style="9"/>
+    <col min="49" max="16384" width="3.125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:70">
@@ -4704,7 +2685,7 @@
       <c r="AS2" s="7"/>
       <c r="AT2" s="8"/>
       <c r="AU2" s="7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="AV2" s="7"/>
       <c r="AW2" s="7"/>
@@ -4758,11 +2739,11 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="56">
+      <c r="X3" s="48">
         <v>1</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
@@ -4785,12 +2766,12 @@
       <c r="AR3" s="11"/>
       <c r="AS3" s="11"/>
       <c r="AT3" s="12"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="60" t="s">
-        <v>133</v>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="AW3" s="11" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="AX3" s="11"/>
       <c r="AY3" s="11"/>
@@ -4819,7 +2800,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4842,10 +2823,12 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="57">
+      <c r="X4" s="49">
         <v>2</v>
       </c>
-      <c r="Y4" s="11"/>
+      <c r="Y4" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
@@ -4867,10 +2850,10 @@
       <c r="AR4" s="11"/>
       <c r="AS4" s="11"/>
       <c r="AT4" s="12"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="61"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="53"/>
       <c r="AW4" s="11" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="AX4" s="11"/>
       <c r="AY4" s="11"/>
@@ -4899,7 +2882,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -4922,10 +2905,12 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
-      <c r="X5" s="57">
+      <c r="X5" s="49">
         <v>3</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
@@ -4947,9 +2932,13 @@
       <c r="AR5" s="11"/>
       <c r="AS5" s="11"/>
       <c r="AT5" s="12"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="13"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AX5" s="11"/>
       <c r="AY5" s="11"/>
       <c r="AZ5" s="11"/>
@@ -4977,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -5000,10 +2989,10 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
-      <c r="X6" s="57">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="11"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
@@ -5025,9 +3014,13 @@
       <c r="AR6" s="11"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="12"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="11"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW6" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="AX6" s="11"/>
       <c r="AY6" s="11"/>
       <c r="AZ6" s="11"/>
@@ -5055,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -5078,10 +3071,10 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="57">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="11"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
@@ -5103,9 +3096,13 @@
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="12"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="11"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW7" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="AX7" s="11"/>
       <c r="AY7" s="11"/>
       <c r="AZ7" s="11"/>
@@ -5133,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -5156,10 +3153,10 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
-      <c r="X8" s="57">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="11"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
@@ -5181,8 +3178,8 @@
       <c r="AR8" s="11"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="12"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="61"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="53"/>
       <c r="AW8" s="11"/>
       <c r="AX8" s="11"/>
       <c r="AY8" s="11"/>
@@ -5211,7 +3208,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -5234,8 +3231,8 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="57">
-        <v>7</v>
+      <c r="X9" s="49">
+        <v>4</v>
       </c>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
@@ -5259,8 +3256,8 @@
       <c r="AR9" s="11"/>
       <c r="AS9" s="11"/>
       <c r="AT9" s="12"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="61"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="53"/>
       <c r="AW9" s="11"/>
       <c r="AX9" s="11"/>
       <c r="AY9" s="11"/>
@@ -5289,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -5312,8 +3309,8 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="57">
-        <v>8</v>
+      <c r="X10" s="49">
+        <v>5</v>
       </c>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
@@ -5337,8 +3334,8 @@
       <c r="AR10" s="11"/>
       <c r="AS10" s="11"/>
       <c r="AT10" s="12"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="61"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="53"/>
       <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
       <c r="AY10" s="11"/>
@@ -5367,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -5390,8 +3387,8 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="57">
-        <v>9</v>
+      <c r="X11" s="49">
+        <v>6</v>
       </c>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
@@ -5415,8 +3412,8 @@
       <c r="AR11" s="11"/>
       <c r="AS11" s="11"/>
       <c r="AT11" s="12"/>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="61"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="53"/>
       <c r="AW11" s="11"/>
       <c r="AX11" s="11"/>
       <c r="AY11" s="11"/>
@@ -5466,8 +3463,8 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-      <c r="X12" s="57">
-        <v>10</v>
+      <c r="X12" s="49">
+        <v>7</v>
       </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
@@ -5491,8 +3488,8 @@
       <c r="AR12" s="11"/>
       <c r="AS12" s="11"/>
       <c r="AT12" s="12"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="61"/>
+      <c r="AU12" s="47"/>
+      <c r="AV12" s="53"/>
       <c r="AW12" s="11"/>
       <c r="AX12" s="11"/>
       <c r="AY12" s="11"/>
@@ -5542,8 +3539,8 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-      <c r="X13" s="57">
-        <v>11</v>
+      <c r="X13" s="49">
+        <v>8</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
@@ -5567,8 +3564,8 @@
       <c r="AR13" s="11"/>
       <c r="AS13" s="11"/>
       <c r="AT13" s="12"/>
-      <c r="AU13" s="55"/>
-      <c r="AV13" s="61"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="53"/>
       <c r="AW13" s="11"/>
       <c r="AX13" s="11"/>
       <c r="AY13" s="11"/>
@@ -5618,8 +3615,8 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="57">
-        <v>12</v>
+      <c r="X14" s="49">
+        <v>9</v>
       </c>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
@@ -5643,8 +3640,8 @@
       <c r="AR14" s="11"/>
       <c r="AS14" s="11"/>
       <c r="AT14" s="12"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="61"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="53"/>
       <c r="AW14" s="11"/>
       <c r="AX14" s="11"/>
       <c r="AY14" s="11"/>
@@ -5694,8 +3691,8 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
-      <c r="X15" s="57">
-        <v>13</v>
+      <c r="X15" s="49">
+        <v>10</v>
       </c>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
@@ -5719,8 +3716,8 @@
       <c r="AR15" s="11"/>
       <c r="AS15" s="11"/>
       <c r="AT15" s="12"/>
-      <c r="AU15" s="55"/>
-      <c r="AV15" s="61"/>
+      <c r="AU15" s="47"/>
+      <c r="AV15" s="53"/>
       <c r="AW15" s="11"/>
       <c r="AX15" s="11"/>
       <c r="AY15" s="11"/>
@@ -5770,8 +3767,8 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="57">
-        <v>14</v>
+      <c r="X16" s="49">
+        <v>11</v>
       </c>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
@@ -5795,8 +3792,8 @@
       <c r="AR16" s="11"/>
       <c r="AS16" s="11"/>
       <c r="AT16" s="12"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="61"/>
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="53"/>
       <c r="AW16" s="11"/>
       <c r="AX16" s="11"/>
       <c r="AY16" s="11"/>
@@ -5846,8 +3843,8 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="57">
-        <v>15</v>
+      <c r="X17" s="49">
+        <v>12</v>
       </c>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
@@ -5871,8 +3868,8 @@
       <c r="AR17" s="11"/>
       <c r="AS17" s="11"/>
       <c r="AT17" s="12"/>
-      <c r="AU17" s="55"/>
-      <c r="AV17" s="61"/>
+      <c r="AU17" s="47"/>
+      <c r="AV17" s="53"/>
       <c r="AW17" s="11"/>
       <c r="AX17" s="11"/>
       <c r="AY17" s="11"/>
@@ -5922,8 +3919,8 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="57">
-        <v>16</v>
+      <c r="X18" s="49">
+        <v>13</v>
       </c>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
@@ -5947,8 +3944,8 @@
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="12"/>
-      <c r="AU18" s="55"/>
-      <c r="AV18" s="61"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="53"/>
       <c r="AW18" s="11"/>
       <c r="AX18" s="11"/>
       <c r="AY18" s="11"/>
@@ -5998,8 +3995,8 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-      <c r="X19" s="57">
-        <v>17</v>
+      <c r="X19" s="49">
+        <v>14</v>
       </c>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
@@ -6023,8 +4020,8 @@
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="12"/>
-      <c r="AU19" s="55"/>
-      <c r="AV19" s="61"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="53"/>
       <c r="AW19" s="11"/>
       <c r="AX19" s="11"/>
       <c r="AY19" s="11"/>
@@ -6074,8 +4071,8 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="57">
-        <v>18</v>
+      <c r="X20" s="49">
+        <v>15</v>
       </c>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
@@ -6099,8 +4096,8 @@
       <c r="AR20" s="11"/>
       <c r="AS20" s="11"/>
       <c r="AT20" s="12"/>
-      <c r="AU20" s="55"/>
-      <c r="AV20" s="61"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="53"/>
       <c r="AW20" s="11"/>
       <c r="AX20" s="11"/>
       <c r="AY20" s="11"/>
@@ -6150,8 +4147,8 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
-      <c r="X21" s="57">
-        <v>19</v>
+      <c r="X21" s="49">
+        <v>16</v>
       </c>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
@@ -6175,8 +4172,8 @@
       <c r="AR21" s="11"/>
       <c r="AS21" s="11"/>
       <c r="AT21" s="12"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="61"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="53"/>
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="11"/>
@@ -6226,8 +4223,8 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-      <c r="X22" s="57">
-        <v>20</v>
+      <c r="X22" s="49">
+        <v>17</v>
       </c>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
@@ -6251,8 +4248,8 @@
       <c r="AR22" s="11"/>
       <c r="AS22" s="11"/>
       <c r="AT22" s="12"/>
-      <c r="AU22" s="55"/>
-      <c r="AV22" s="61"/>
+      <c r="AU22" s="47"/>
+      <c r="AV22" s="53"/>
       <c r="AW22" s="11"/>
       <c r="AX22" s="11"/>
       <c r="AY22" s="11"/>
@@ -6302,8 +4299,8 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-      <c r="X23" s="57">
-        <v>21</v>
+      <c r="X23" s="49">
+        <v>18</v>
       </c>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
@@ -6327,8 +4324,8 @@
       <c r="AR23" s="11"/>
       <c r="AS23" s="11"/>
       <c r="AT23" s="12"/>
-      <c r="AU23" s="55"/>
-      <c r="AV23" s="61"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="53"/>
       <c r="AW23" s="11"/>
       <c r="AX23" s="11"/>
       <c r="AY23" s="11"/>
@@ -6378,8 +4375,8 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-      <c r="X24" s="57">
-        <v>22</v>
+      <c r="X24" s="49">
+        <v>19</v>
       </c>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
@@ -6403,8 +4400,8 @@
       <c r="AR24" s="11"/>
       <c r="AS24" s="11"/>
       <c r="AT24" s="12"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="61"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="53"/>
       <c r="AW24" s="11"/>
       <c r="AX24" s="11"/>
       <c r="AY24" s="11"/>
@@ -6452,7 +4449,9 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-      <c r="X25" s="57"/>
+      <c r="X25" s="49">
+        <v>20</v>
+      </c>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
@@ -6475,8 +4474,8 @@
       <c r="AR25" s="11"/>
       <c r="AS25" s="11"/>
       <c r="AT25" s="12"/>
-      <c r="AU25" s="55"/>
-      <c r="AV25" s="61"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="53"/>
       <c r="AW25" s="11"/>
       <c r="AX25" s="11"/>
       <c r="AY25" s="11"/>
@@ -6524,7 +4523,9 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-      <c r="X26" s="57"/>
+      <c r="X26" s="49">
+        <v>21</v>
+      </c>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
@@ -6547,8 +4548,8 @@
       <c r="AR26" s="11"/>
       <c r="AS26" s="11"/>
       <c r="AT26" s="12"/>
-      <c r="AU26" s="55"/>
-      <c r="AV26" s="61"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="53"/>
       <c r="AW26" s="11"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
@@ -6596,7 +4597,9 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-      <c r="X27" s="57"/>
+      <c r="X27" s="49">
+        <v>22</v>
+      </c>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
@@ -6619,8 +4622,8 @@
       <c r="AR27" s="11"/>
       <c r="AS27" s="11"/>
       <c r="AT27" s="12"/>
-      <c r="AU27" s="55"/>
-      <c r="AV27" s="61"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="53"/>
       <c r="AW27" s="11"/>
       <c r="AX27" s="11"/>
       <c r="AY27" s="11"/>
@@ -6668,7 +4671,7 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-      <c r="X28" s="57"/>
+      <c r="X28" s="49"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
@@ -6691,8 +4694,8 @@
       <c r="AR28" s="11"/>
       <c r="AS28" s="11"/>
       <c r="AT28" s="12"/>
-      <c r="AU28" s="55"/>
-      <c r="AV28" s="61"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="53"/>
       <c r="AW28" s="11"/>
       <c r="AX28" s="11"/>
       <c r="AY28" s="11"/>
@@ -6740,7 +4743,7 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-      <c r="X29" s="57"/>
+      <c r="X29" s="49"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
@@ -6763,8 +4766,8 @@
       <c r="AR29" s="11"/>
       <c r="AS29" s="11"/>
       <c r="AT29" s="12"/>
-      <c r="AU29" s="55"/>
-      <c r="AV29" s="61"/>
+      <c r="AU29" s="47"/>
+      <c r="AV29" s="53"/>
       <c r="AW29" s="11"/>
       <c r="AX29" s="11"/>
       <c r="AY29" s="11"/>
@@ -6812,7 +4815,7 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-      <c r="X30" s="57"/>
+      <c r="X30" s="49"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
@@ -6835,8 +4838,8 @@
       <c r="AR30" s="11"/>
       <c r="AS30" s="11"/>
       <c r="AT30" s="12"/>
-      <c r="AU30" s="55"/>
-      <c r="AV30" s="61"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="53"/>
       <c r="AW30" s="11"/>
       <c r="AX30" s="11"/>
       <c r="AY30" s="11"/>
@@ -6884,7 +4887,7 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-      <c r="X31" s="57"/>
+      <c r="X31" s="49"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
@@ -6907,8 +4910,8 @@
       <c r="AR31" s="11"/>
       <c r="AS31" s="11"/>
       <c r="AT31" s="12"/>
-      <c r="AU31" s="55"/>
-      <c r="AV31" s="61"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="53"/>
       <c r="AW31" s="11"/>
       <c r="AX31" s="11"/>
       <c r="AY31" s="11"/>
@@ -6956,7 +4959,7 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-      <c r="X32" s="57"/>
+      <c r="X32" s="49"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
@@ -6979,8 +4982,8 @@
       <c r="AR32" s="11"/>
       <c r="AS32" s="11"/>
       <c r="AT32" s="12"/>
-      <c r="AU32" s="55"/>
-      <c r="AV32" s="61"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="53"/>
       <c r="AW32" s="11"/>
       <c r="AX32" s="11"/>
       <c r="AY32" s="11"/>
@@ -7028,7 +5031,7 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
-      <c r="X33" s="57"/>
+      <c r="X33" s="49"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
@@ -7051,8 +5054,8 @@
       <c r="AR33" s="11"/>
       <c r="AS33" s="11"/>
       <c r="AT33" s="12"/>
-      <c r="AU33" s="55"/>
-      <c r="AV33" s="61"/>
+      <c r="AU33" s="47"/>
+      <c r="AV33" s="53"/>
       <c r="AW33" s="11"/>
       <c r="AX33" s="11"/>
       <c r="AY33" s="11"/>
@@ -7100,7 +5103,7 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-      <c r="X34" s="57"/>
+      <c r="X34" s="49"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
@@ -7123,8 +5126,8 @@
       <c r="AR34" s="11"/>
       <c r="AS34" s="11"/>
       <c r="AT34" s="12"/>
-      <c r="AU34" s="55"/>
-      <c r="AV34" s="61"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="53"/>
       <c r="AW34" s="11"/>
       <c r="AX34" s="11"/>
       <c r="AY34" s="11"/>
@@ -7172,7 +5175,7 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-      <c r="X35" s="57"/>
+      <c r="X35" s="49"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
@@ -7195,8 +5198,8 @@
       <c r="AR35" s="11"/>
       <c r="AS35" s="11"/>
       <c r="AT35" s="12"/>
-      <c r="AU35" s="55"/>
-      <c r="AV35" s="61"/>
+      <c r="AU35" s="47"/>
+      <c r="AV35" s="53"/>
       <c r="AW35" s="11"/>
       <c r="AX35" s="11"/>
       <c r="AY35" s="11"/>
@@ -7244,7 +5247,7 @@
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-      <c r="X36" s="57"/>
+      <c r="X36" s="49"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -7267,8 +5270,8 @@
       <c r="AR36" s="11"/>
       <c r="AS36" s="11"/>
       <c r="AT36" s="12"/>
-      <c r="AU36" s="55"/>
-      <c r="AV36" s="61"/>
+      <c r="AU36" s="47"/>
+      <c r="AV36" s="53"/>
       <c r="AW36" s="11"/>
       <c r="AX36" s="11"/>
       <c r="AY36" s="11"/>
@@ -7316,7 +5319,7 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-      <c r="X37" s="57"/>
+      <c r="X37" s="49"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
@@ -7339,8 +5342,8 @@
       <c r="AR37" s="11"/>
       <c r="AS37" s="11"/>
       <c r="AT37" s="12"/>
-      <c r="AU37" s="55"/>
-      <c r="AV37" s="61"/>
+      <c r="AU37" s="47"/>
+      <c r="AV37" s="53"/>
       <c r="AW37" s="11"/>
       <c r="AX37" s="11"/>
       <c r="AY37" s="11"/>
@@ -7388,7 +5391,7 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-      <c r="X38" s="57"/>
+      <c r="X38" s="49"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
@@ -7411,8 +5414,8 @@
       <c r="AR38" s="11"/>
       <c r="AS38" s="11"/>
       <c r="AT38" s="12"/>
-      <c r="AU38" s="55"/>
-      <c r="AV38" s="61"/>
+      <c r="AU38" s="47"/>
+      <c r="AV38" s="53"/>
       <c r="AW38" s="11"/>
       <c r="AX38" s="11"/>
       <c r="AY38" s="11"/>
@@ -7460,7 +5463,7 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-      <c r="X39" s="57"/>
+      <c r="X39" s="49"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
@@ -7483,8 +5486,8 @@
       <c r="AR39" s="11"/>
       <c r="AS39" s="11"/>
       <c r="AT39" s="12"/>
-      <c r="AU39" s="55"/>
-      <c r="AV39" s="61"/>
+      <c r="AU39" s="47"/>
+      <c r="AV39" s="53"/>
       <c r="AW39" s="11"/>
       <c r="AX39" s="11"/>
       <c r="AY39" s="11"/>
@@ -7532,7 +5535,7 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-      <c r="X40" s="57"/>
+      <c r="X40" s="49"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
@@ -7555,8 +5558,8 @@
       <c r="AR40" s="11"/>
       <c r="AS40" s="11"/>
       <c r="AT40" s="12"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="61"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="53"/>
       <c r="AW40" s="11"/>
       <c r="AX40" s="11"/>
       <c r="AY40" s="11"/>
@@ -7604,7 +5607,7 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-      <c r="X41" s="57"/>
+      <c r="X41" s="49"/>
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
@@ -7627,8 +5630,8 @@
       <c r="AR41" s="11"/>
       <c r="AS41" s="11"/>
       <c r="AT41" s="12"/>
-      <c r="AU41" s="55"/>
-      <c r="AV41" s="61"/>
+      <c r="AU41" s="47"/>
+      <c r="AV41" s="53"/>
       <c r="AW41" s="11"/>
       <c r="AX41" s="11"/>
       <c r="AY41" s="11"/>
@@ -7676,7 +5679,7 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-      <c r="X42" s="57"/>
+      <c r="X42" s="49"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
@@ -7699,8 +5702,8 @@
       <c r="AR42" s="11"/>
       <c r="AS42" s="11"/>
       <c r="AT42" s="12"/>
-      <c r="AU42" s="55"/>
-      <c r="AV42" s="61"/>
+      <c r="AU42" s="47"/>
+      <c r="AV42" s="53"/>
       <c r="AW42" s="11"/>
       <c r="AX42" s="11"/>
       <c r="AY42" s="11"/>
@@ -7748,7 +5751,7 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-      <c r="X43" s="57"/>
+      <c r="X43" s="49"/>
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
@@ -7771,8 +5774,8 @@
       <c r="AR43" s="11"/>
       <c r="AS43" s="11"/>
       <c r="AT43" s="12"/>
-      <c r="AU43" s="55"/>
-      <c r="AV43" s="61"/>
+      <c r="AU43" s="47"/>
+      <c r="AV43" s="53"/>
       <c r="AW43" s="11"/>
       <c r="AX43" s="11"/>
       <c r="AY43" s="11"/>
@@ -7820,7 +5823,7 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
-      <c r="X44" s="57"/>
+      <c r="X44" s="49"/>
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
@@ -7843,8 +5846,8 @@
       <c r="AR44" s="11"/>
       <c r="AS44" s="11"/>
       <c r="AT44" s="12"/>
-      <c r="AU44" s="55"/>
-      <c r="AV44" s="61"/>
+      <c r="AU44" s="47"/>
+      <c r="AV44" s="53"/>
       <c r="AW44" s="11"/>
       <c r="AX44" s="11"/>
       <c r="AY44" s="11"/>
@@ -7892,7 +5895,7 @@
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
-      <c r="X45" s="57"/>
+      <c r="X45" s="49"/>
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
@@ -7915,8 +5918,8 @@
       <c r="AR45" s="11"/>
       <c r="AS45" s="11"/>
       <c r="AT45" s="12"/>
-      <c r="AU45" s="55"/>
-      <c r="AV45" s="61"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="53"/>
       <c r="AW45" s="11"/>
       <c r="AX45" s="11"/>
       <c r="AY45" s="11"/>
@@ -7964,7 +5967,7 @@
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
-      <c r="X46" s="57"/>
+      <c r="X46" s="49"/>
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
@@ -7987,8 +5990,8 @@
       <c r="AR46" s="11"/>
       <c r="AS46" s="11"/>
       <c r="AT46" s="12"/>
-      <c r="AU46" s="55"/>
-      <c r="AV46" s="61"/>
+      <c r="AU46" s="47"/>
+      <c r="AV46" s="53"/>
       <c r="AW46" s="11"/>
       <c r="AX46" s="11"/>
       <c r="AY46" s="11"/>
@@ -8036,7 +6039,7 @@
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
-      <c r="X47" s="57"/>
+      <c r="X47" s="49"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
@@ -8059,8 +6062,8 @@
       <c r="AR47" s="11"/>
       <c r="AS47" s="11"/>
       <c r="AT47" s="12"/>
-      <c r="AU47" s="55"/>
-      <c r="AV47" s="61"/>
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="53"/>
       <c r="AW47" s="11"/>
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
@@ -8108,7 +6111,7 @@
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
-      <c r="X48" s="57"/>
+      <c r="X48" s="49"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
@@ -8131,8 +6134,8 @@
       <c r="AR48" s="11"/>
       <c r="AS48" s="11"/>
       <c r="AT48" s="12"/>
-      <c r="AU48" s="55"/>
-      <c r="AV48" s="61"/>
+      <c r="AU48" s="47"/>
+      <c r="AV48" s="53"/>
       <c r="AW48" s="11"/>
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
@@ -8180,7 +6183,7 @@
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
-      <c r="X49" s="57"/>
+      <c r="X49" s="49"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
@@ -8203,8 +6206,8 @@
       <c r="AR49" s="11"/>
       <c r="AS49" s="11"/>
       <c r="AT49" s="12"/>
-      <c r="AU49" s="55"/>
-      <c r="AV49" s="61"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="53"/>
       <c r="AW49" s="11"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
@@ -8252,7 +6255,7 @@
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
-      <c r="X50" s="57"/>
+      <c r="X50" s="49"/>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
@@ -8275,8 +6278,8 @@
       <c r="AR50" s="11"/>
       <c r="AS50" s="11"/>
       <c r="AT50" s="12"/>
-      <c r="AU50" s="55"/>
-      <c r="AV50" s="61"/>
+      <c r="AU50" s="47"/>
+      <c r="AV50" s="53"/>
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="11"/>
@@ -8324,7 +6327,7 @@
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
-      <c r="X51" s="57"/>
+      <c r="X51" s="49"/>
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
@@ -8347,8 +6350,8 @@
       <c r="AR51" s="11"/>
       <c r="AS51" s="11"/>
       <c r="AT51" s="12"/>
-      <c r="AU51" s="55"/>
-      <c r="AV51" s="61"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="53"/>
       <c r="AW51" s="11"/>
       <c r="AX51" s="11"/>
       <c r="AY51" s="11"/>
@@ -8396,7 +6399,7 @@
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
-      <c r="X52" s="57"/>
+      <c r="X52" s="49"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
@@ -8419,8 +6422,8 @@
       <c r="AR52" s="11"/>
       <c r="AS52" s="11"/>
       <c r="AT52" s="12"/>
-      <c r="AU52" s="55"/>
-      <c r="AV52" s="61"/>
+      <c r="AU52" s="47"/>
+      <c r="AV52" s="53"/>
       <c r="AW52" s="11"/>
       <c r="AX52" s="11"/>
       <c r="AY52" s="11"/>
@@ -8468,7 +6471,7 @@
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
-      <c r="X53" s="57"/>
+      <c r="X53" s="49"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
@@ -8491,8 +6494,8 @@
       <c r="AR53" s="11"/>
       <c r="AS53" s="11"/>
       <c r="AT53" s="12"/>
-      <c r="AU53" s="55"/>
-      <c r="AV53" s="61"/>
+      <c r="AU53" s="47"/>
+      <c r="AV53" s="53"/>
       <c r="AW53" s="11"/>
       <c r="AX53" s="11"/>
       <c r="AY53" s="11"/>
@@ -8542,7 +6545,7 @@
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
-      <c r="X54" s="57"/>
+      <c r="X54" s="49"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
@@ -8565,8 +6568,8 @@
       <c r="AR54" s="11"/>
       <c r="AS54" s="11"/>
       <c r="AT54" s="12"/>
-      <c r="AU54" s="55"/>
-      <c r="AV54" s="61"/>
+      <c r="AU54" s="47"/>
+      <c r="AV54" s="53"/>
       <c r="AW54" s="11"/>
       <c r="AX54" s="11"/>
       <c r="AY54" s="11"/>
@@ -8614,7 +6617,7 @@
       <c r="U55" s="15"/>
       <c r="V55" s="15"/>
       <c r="W55" s="15"/>
-      <c r="X55" s="58"/>
+      <c r="X55" s="49"/>
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
@@ -8637,8 +6640,8 @@
       <c r="AR55" s="15"/>
       <c r="AS55" s="15"/>
       <c r="AT55" s="16"/>
-      <c r="AU55" s="62"/>
-      <c r="AV55" s="63"/>
+      <c r="AU55" s="54"/>
+      <c r="AV55" s="55"/>
       <c r="AW55" s="15"/>
       <c r="AX55" s="15"/>
       <c r="AY55" s="15"/>
@@ -8662,6 +6665,15 @@
       <c r="BQ55" s="15"/>
       <c r="BR55" s="16"/>
     </row>
+    <row r="56" spans="1:70">
+      <c r="X56" s="49"/>
+    </row>
+    <row r="57" spans="1:70">
+      <c r="X57" s="49"/>
+    </row>
+    <row r="58" spans="1:70">
+      <c r="X58" s="50"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8671,226 +6683,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1C5A7D-FCF7-4AC3-88EF-F02A7F16B7CB}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="18"/>
-    <col min="2" max="2" width="43.59765625" style="18" customWidth="1"/>
-    <col min="3" max="7" width="17.796875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="18"/>
+    <col min="1" max="1" width="8.75" style="17"/>
+    <col min="2" max="2" width="43.625" style="17" customWidth="1"/>
+    <col min="3" max="7" width="17.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:9" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:9" ht="19.5" thickBot="1">
+      <c r="B2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="66">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="64">
         <v>2</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="64">
         <v>3</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="64">
         <v>4</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="65">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="90">
-      <c r="B3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="2:9" ht="72">
-      <c r="B4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="2:9" ht="90">
-      <c r="B5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" ht="72">
-      <c r="B6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="2:9" ht="108">
-      <c r="B7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="2:9" ht="126">
-      <c r="B8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:9" ht="108">
-      <c r="B9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="2:9" ht="108.6" thickBot="1">
-      <c r="B10" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="24"/>
+      <c r="H2" s="67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" thickBot="1">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8904,466 +6827,340 @@
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="6.19921875" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="65" style="46" customWidth="1"/>
-    <col min="6" max="6" width="48.296875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="37" customWidth="1"/>
+    <col min="5" max="5" width="65" style="38" customWidth="1"/>
+    <col min="6" max="6" width="48.25" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="126">
-      <c r="B2" s="36">
+      <c r="D1" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="72">
         <f t="shared" ref="B2:B14" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="108">
-      <c r="B3" s="36">
+      <c r="C2" s="30"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="180">
-      <c r="B4" s="36">
+      <c r="C3" s="30"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="72">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="90" hidden="1">
-      <c r="B5" s="36">
+      <c r="C4" s="30"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="72">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="72">
-      <c r="B6" s="36">
+      <c r="C5" s="30"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="72">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="90">
-      <c r="B7" s="36">
+      <c r="C6" s="30"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="72">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="36" hidden="1">
-      <c r="B8" s="36">
+      <c r="C7" s="30"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="72">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="90" hidden="1">
-      <c r="B9" s="36">
+      <c r="C8" s="30"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="72">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="72" hidden="1">
-      <c r="B10" s="36">
+      <c r="C9" s="30"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="72">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="36" hidden="1">
-      <c r="B11" s="36">
+      <c r="C10" s="30"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="72">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="162" hidden="1">
-      <c r="B12" s="36">
+      <c r="C11" s="30"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="72">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="36" hidden="1">
-      <c r="B13" s="36">
+      <c r="C12" s="30"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="72">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="90">
-      <c r="B14" s="36">
+      <c r="C13" s="30"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="73"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="72">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" hidden="1">
-      <c r="B15" s="39">
+      <c r="C14" s="30"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="73"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="74">
         <f>ROW()-1</f>
         <v>14</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="2:7" hidden="1">
-      <c r="B16" s="39">
+      <c r="C15" s="30"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="75">
         <f>ROW()-1</f>
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="2:7" s="43" customFormat="1">
-      <c r="D19" s="40"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-    </row>
-    <row r="20" spans="2:7" s="43" customFormat="1">
-      <c r="D20" s="40"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-    </row>
-    <row r="21" spans="2:7" s="43" customFormat="1">
-      <c r="D21" s="24"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-    </row>
-    <row r="22" spans="2:7" s="43" customFormat="1">
-      <c r="D22" s="24"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-    </row>
-    <row r="23" spans="2:7" s="43" customFormat="1">
-      <c r="D23" s="24"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-    </row>
-    <row r="24" spans="2:7" s="43" customFormat="1">
-      <c r="D24" s="24"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-    </row>
-    <row r="25" spans="2:7" s="43" customFormat="1">
-      <c r="D25" s="24"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-    </row>
-    <row r="26" spans="2:7" s="43" customFormat="1">
-      <c r="D26" s="24"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-    </row>
-    <row r="27" spans="2:7" s="43" customFormat="1">
-      <c r="D27" s="24"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-    </row>
-    <row r="28" spans="2:7" s="43" customFormat="1">
-      <c r="D28" s="24"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-    </row>
-    <row r="29" spans="2:7" s="43" customFormat="1">
-      <c r="D29" s="24"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-    </row>
-    <row r="30" spans="2:7" s="43" customFormat="1">
-      <c r="D30" s="24"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-    </row>
-    <row r="31" spans="2:7" s="43" customFormat="1">
-      <c r="D31" s="24"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-    </row>
-    <row r="32" spans="2:7" s="43" customFormat="1">
-      <c r="D32" s="24"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-    </row>
-    <row r="33" spans="4:6" s="43" customFormat="1">
-      <c r="D33" s="24"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="34" spans="4:6" s="43" customFormat="1">
-      <c r="D34" s="24"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-    </row>
-    <row r="35" spans="4:6" s="43" customFormat="1">
-      <c r="D35" s="24"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-    </row>
-    <row r="36" spans="4:6" s="43" customFormat="1">
-      <c r="D36" s="24"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-    </row>
-    <row r="37" spans="4:6" s="43" customFormat="1">
-      <c r="D37" s="24"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" spans="4:6" s="43" customFormat="1">
-      <c r="D38" s="24"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-    </row>
-    <row r="39" spans="4:6" s="43" customFormat="1">
-      <c r="D39" s="24"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-    </row>
-    <row r="40" spans="4:6" s="43" customFormat="1">
-      <c r="D40" s="24"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-    </row>
-    <row r="41" spans="4:6" s="43" customFormat="1">
-      <c r="D41" s="24"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-    </row>
-    <row r="42" spans="4:6" s="43" customFormat="1">
-      <c r="D42" s="24"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="2:7" s="35" customFormat="1">
+      <c r="D19" s="32"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="2:7" s="35" customFormat="1">
+      <c r="D20" s="32"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" s="35" customFormat="1">
+      <c r="D21" s="18"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" s="35" customFormat="1">
+      <c r="D22" s="18"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="2:7" s="35" customFormat="1">
+      <c r="D23" s="18"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:7" s="35" customFormat="1">
+      <c r="D24" s="18"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:7" s="35" customFormat="1">
+      <c r="D25" s="18"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:7" s="35" customFormat="1">
+      <c r="D26" s="18"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:7" s="35" customFormat="1">
+      <c r="D27" s="18"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:7" s="35" customFormat="1">
+      <c r="D28" s="18"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:7" s="35" customFormat="1">
+      <c r="D29" s="18"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:7" s="35" customFormat="1">
+      <c r="D30" s="18"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:7" s="35" customFormat="1">
+      <c r="D31" s="18"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:7" s="35" customFormat="1">
+      <c r="D32" s="18"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="4:6" s="35" customFormat="1">
+      <c r="D33" s="18"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="4:6" s="35" customFormat="1">
+      <c r="D34" s="18"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="4:6" s="35" customFormat="1">
+      <c r="D35" s="18"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="4:6" s="35" customFormat="1">
+      <c r="D36" s="18"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="4:6" s="35" customFormat="1">
+      <c r="D37" s="18"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="4:6" s="35" customFormat="1">
+      <c r="D38" s="18"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="4:6" s="35" customFormat="1">
+      <c r="D39" s="18"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="4:6" s="35" customFormat="1">
+      <c r="D40" s="18"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="4:6" s="35" customFormat="1">
+      <c r="D41" s="18"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="4:6" s="35" customFormat="1">
+      <c r="D42" s="18"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9392,12 +7189,12 @@
   <dimension ref="A2:BQ26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="3.09765625" style="9"/>
+    <col min="1" max="16384" width="3.125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:69">
@@ -9561,7 +7358,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -9640,7 +7437,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -9719,7 +7516,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -9798,7 +7595,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -9877,7 +7674,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -9956,7 +7753,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -10035,7 +7832,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -10114,7 +7911,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -11352,109 +9149,109 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="126">
-      <c r="B3" s="48">
+      <c r="B2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="131.25">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="51">
+      <c r="C3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="43">
         <v>44668</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="72">
-      <c r="B4" s="48">
+    <row r="4" spans="2:5" ht="75">
+      <c r="B4" s="40">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="51">
+      <c r="C4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="43">
         <v>44668</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="90">
-      <c r="B5" s="48">
+    <row r="5" spans="2:5" ht="93.75">
+      <c r="B5" s="40">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="51">
+      <c r="D5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="43">
         <v>44668</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="54">
-      <c r="B6" s="48">
+    <row r="6" spans="2:5" ht="56.25">
+      <c r="B6" s="40">
         <v>5</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="C6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="43">
         <v>44668</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="36">
-      <c r="B7" s="48">
+    <row r="7" spans="2:5" ht="37.5">
+      <c r="B7" s="40">
         <v>6</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="51">
+      <c r="C7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="43">
         <v>44668</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="90">
-      <c r="B8" s="48">
+    <row r="8" spans="2:5" ht="93.75">
+      <c r="B8" s="40">
         <v>13</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="51">
+      <c r="D8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="43">
         <v>44668</v>
       </c>
     </row>
@@ -11469,137 +9266,137 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.796875" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="46"/>
+      <c r="B2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.8" customHeight="1">
-      <c r="B4" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="54">
-      <c r="A6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36">
-      <c r="A7" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="54">
-      <c r="A8" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="108">
-      <c r="A9" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>130</v>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="B4" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="56.25">
+      <c r="A5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="56.25">
+      <c r="A6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="A7" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="56.25">
+      <c r="A8" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="112.5">
+      <c r="A9" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="49"/>
+      <c r="A10" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11613,563 +9410,639 @@
   <dimension ref="B2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:T11"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="B2" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="84" t="str">
         <f ca="1">MID(RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1))),6,100)</f>
         <v>Go言語</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67" t="s">
+      <c r="B4" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="56"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="82">
+        <v>44718</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="58">
+        <v>1</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="58">
+        <v>2</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="82">
+        <v>44735</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="58">
+        <v>3</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="58">
+        <v>4</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="64"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="B5" s="70">
-        <v>44718</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="69">
-        <v>1</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="69">
-        <v>2</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-    </row>
-    <row r="7" spans="2:21">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:T8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:T9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:T10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:T11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:T12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:T13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:T14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:T15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:T16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:T17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:T18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:T19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:T20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:T21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:T22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:T23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:T26"/>
@@ -12179,68 +10052,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:T25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:T22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:T23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:T20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:T21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:T18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:T19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:T16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:T17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:T14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:T15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:T12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:T13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:T10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:T11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:T8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:T9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:T5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12255,569 +10066,578 @@
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="B2" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="64"/>
+      <c r="B4" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="56"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="70"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="69">
+      <c r="B5" s="82"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="58">
         <v>1</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="69">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="58">
         <v>2</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G21:T21"/>
-    <mergeCell ref="G22:T22"/>
-    <mergeCell ref="G23:T23"/>
-    <mergeCell ref="G24:T24"/>
-    <mergeCell ref="G25:T25"/>
-    <mergeCell ref="G26:T26"/>
-    <mergeCell ref="G14:T14"/>
-    <mergeCell ref="G15:T15"/>
-    <mergeCell ref="G16:T16"/>
-    <mergeCell ref="G17:T17"/>
-    <mergeCell ref="G18:T18"/>
-    <mergeCell ref="G19:T19"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="G8:T8"/>
-    <mergeCell ref="G9:T9"/>
-    <mergeCell ref="G10:T10"/>
-    <mergeCell ref="G11:T11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:T20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="E4:F4"/>
@@ -12834,39 +10654,30 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G20:T20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="G8:T8"/>
+    <mergeCell ref="G9:T9"/>
+    <mergeCell ref="G10:T10"/>
+    <mergeCell ref="G11:T11"/>
     <mergeCell ref="G13:T13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:T12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="G26:T26"/>
+    <mergeCell ref="G14:T14"/>
+    <mergeCell ref="G15:T15"/>
+    <mergeCell ref="G16:T16"/>
+    <mergeCell ref="G23:T23"/>
+    <mergeCell ref="G24:T24"/>
+    <mergeCell ref="G25:T25"/>
+    <mergeCell ref="G17:T17"/>
+    <mergeCell ref="G18:T18"/>
+    <mergeCell ref="G19:T19"/>
+    <mergeCell ref="G21:T21"/>
+    <mergeCell ref="G22:T22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
